--- a/biology/Zoologie/Dicranopalpus_ramosus/Dicranopalpus_ramosus.xlsx
+++ b/biology/Zoologie/Dicranopalpus_ramosus/Dicranopalpus_ramosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dicranopalpus ramosus est une espèce d'opilions eupnois de la famille des Phalangiidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre en Afrique du Nord et en Europe.
 Au départ l'espèce a été identifiée au Maroc. Par la suite, elle s'est diffusée en Europe, où elle a été signalée d'abord au Portugal (en 1948), puis en Espagne (1965) et en France (1969). Elle atteignit les Pays-Bas en 1992. Depuis 2004, on sait qu'elle se rencontre aussi en Allemagne. Dès 1957, elle a été signalée à Bournemouth, dans le Sud de l'Angleterre, d'où elle s'est diffusée sur toute l'île, jusqu'à atteindre l'Écosse en 2000. En 2010, une source a signalé la présence de l'espèce au Danemark.
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les mâles mesurent jusqu'à 4 mm de long, les femelles jusqu'à 6 mm. Les individus des deux sexes ont de très longues pattes (notamment la deuxième paire qui peut atteindre 5 cm de long), avec un apophysis très allongé qui atteint presque le bout du tibia. De ce fait, leurs pédipalpes ont l'air fourchus. Leur corps, de couleur brunâtre, porte des marques sombres ; les femelles sont d'une couleur un peu plus claire.
 L'espèce est identifiable aisément grâce à la forme des pédipalpes et à la position qu'adoptent les individus au repos, avec les pattes étalées sur les côtés. Cependant, la méthode traditionnelle pour capturer des invertébrés ne fonctionne pas : sur 103 individus collectés en Belgique, un seul a été capturé grâce à un piège, les autres l'ayant été à la main.
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Simon, 1909 : « Étude sur les Arachnides recueillis au Maroc par M. Martínez de la Escalera en 1907. » Memorias de la Real Sociedad Española de Historia Natural, vol. 6, no 1, p. 5–43 (texte intégral).</t>
         </is>
